--- a/data/trans_dic/P33b_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,18</t>
+          <t>3,15; 8,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 12,91</t>
+          <t>7,49; 12,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,68</t>
+          <t>5,92; 9,52</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,24</t>
+          <t>7,76; 14,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,3; 17,86</t>
+          <t>12,31; 17,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 15,3</t>
+          <t>10,97; 15,48</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,51; 20,32</t>
+          <t>12,49; 20,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,75; 24,68</t>
+          <t>17,41; 24,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,27; 21,32</t>
+          <t>16,36; 21,36</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,64; 24,55</t>
+          <t>13,26; 24,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 25,27</t>
+          <t>16,71; 24,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,03</t>
+          <t>16,6; 23,17</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 12,28</t>
+          <t>5,9; 12,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,8</t>
+          <t>8,49; 13,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,1</t>
+          <t>7,99; 12,24</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,44; 21,19</t>
+          <t>13,69; 21,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,58; 29,63</t>
+          <t>21,43; 29,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,04</t>
+          <t>18,37; 24,07</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,33; 22,02</t>
+          <t>14,85; 21,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,08; 25,94</t>
+          <t>12,8; 26,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,83; 22,75</t>
+          <t>14,99; 22,59</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,69; 23,36</t>
+          <t>16,68; 23,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,67; 34,3</t>
+          <t>28,77; 35,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,07; 28,35</t>
+          <t>23,18; 28,19</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,41; 17,21</t>
+          <t>14,42; 17,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,27; 22,86</t>
+          <t>19,3; 22,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,69; 19,83</t>
+          <t>17,62; 19,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,38</t>
+          <t>3,06; 8,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 12,54</t>
+          <t>7,53; 12,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,52</t>
+          <t>5,96; 9,68</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,76; 14,64</t>
+          <t>7,78; 14,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 17,54</t>
+          <t>12,3; 17,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,97; 15,48</t>
+          <t>10,91; 15,3</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 20,32</t>
+          <t>12,51; 20,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 24,67</t>
+          <t>17,75; 24,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,36; 21,36</t>
+          <t>16,27; 21,32</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 24,07</t>
+          <t>13,64; 24,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 24,91</t>
+          <t>16,61; 25,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 23,17</t>
+          <t>16,75; 23,03</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 12,42</t>
+          <t>5,84; 12,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 13,65</t>
+          <t>8,44; 13,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,24</t>
+          <t>7,91; 12,1</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,69; 21,43</t>
+          <t>13,44; 21,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,43; 29,26</t>
+          <t>21,58; 29,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,37; 24,07</t>
+          <t>18,43; 24,04</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,85; 21,7</t>
+          <t>15,33; 22,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,8; 26,11</t>
+          <t>13,08; 25,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,99; 22,59</t>
+          <t>15,83; 22,75</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,68; 23,81</t>
+          <t>15,69; 23,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,77; 35,09</t>
+          <t>28,67; 34,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,18; 28,19</t>
+          <t>23,07; 28,35</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,13</t>
+          <t>14,41; 17,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,3; 22,82</t>
+          <t>19,27; 22,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,62; 19,86</t>
+          <t>17,69; 19,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,18</t>
+          <t>2,8; 7,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 12,91</t>
+          <t>7,25; 12,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,68</t>
+          <t>5,62; 9,32</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>12,74%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,24</t>
+          <t>7,6; 14,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,3; 17,86</t>
+          <t>12,24; 17,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 15,3</t>
+          <t>10,7; 15,11</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>18,53%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,51; 20,32</t>
+          <t>12,31; 20,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,75; 24,68</t>
+          <t>17,62; 24,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,27; 21,32</t>
+          <t>16,04; 21,09</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>17,47%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,64; 24,55</t>
+          <t>13,57; 24,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 25,27</t>
+          <t>9,9; 22,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,03</t>
+          <t>13,23; 21,34</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 12,28</t>
+          <t>5,82; 12,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,8</t>
+          <t>8,56; 13,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,1</t>
+          <t>7,91; 12,07</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>20,94%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,44; 21,19</t>
+          <t>13,19; 20,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,58; 29,63</t>
+          <t>21,59; 29,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,04</t>
+          <t>18,22; 23,85</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>18,47%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,33; 22,02</t>
+          <t>15,04; 21,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,08; 25,94</t>
+          <t>8,4; 25,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,83; 22,75</t>
+          <t>11,3; 22,32</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>23,02%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,69; 23,36</t>
+          <t>7,29; 22,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,67; 34,3</t>
+          <t>29,05; 34,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,07; 28,35</t>
+          <t>14,56; 27,9</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>17,35%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,41; 17,21</t>
+          <t>11,21; 16,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,27; 22,86</t>
+          <t>16,51; 21,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,69; 19,83</t>
+          <t>15,15; 18,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,76</t>
+          <t>2,81; 7,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 12,5</t>
+          <t>7,1; 12,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,32</t>
+          <t>5,65; 9,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 14,25</t>
+          <t>7,98; 14,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 17,79</t>
+          <t>12,39; 17,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 15,11</t>
+          <t>10,78; 14,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,31; 20,07</t>
+          <t>12,44; 19,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 24,54</t>
+          <t>17,79; 24,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,04; 21,09</t>
+          <t>16,22; 21,25</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 24,45</t>
+          <t>13,61; 24,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 22,31</t>
+          <t>10,28; 22,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 21,34</t>
+          <t>12,69; 21,66</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 12,22</t>
+          <t>6,0; 12,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,99</t>
+          <t>8,35; 13,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,07</t>
+          <t>7,98; 12,1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,19; 20,85</t>
+          <t>13,18; 20,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,59; 29,62</t>
+          <t>21,6; 29,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,22; 23,85</t>
+          <t>18,46; 24,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,95</t>
+          <t>14,94; 21,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,4; 25,77</t>
+          <t>9,93; 25,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,3; 22,32</t>
+          <t>11,4; 22,02</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,29; 22,72</t>
+          <t>6,96; 22,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,05; 34,52</t>
+          <t>28,86; 34,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,56; 27,9</t>
+          <t>14,36; 27,82</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,21; 16,11</t>
+          <t>11,35; 16,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,51; 21,86</t>
+          <t>16,13; 21,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,15; 18,8</t>
+          <t>15,08; 18,61</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se despierta demasiado temprano (de forma involuntaria)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15624</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27813</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43438</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8746; 24020</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20552; 34866</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>33962; 56126</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55201</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>76483</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>131684</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41378; 77597</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>63779; 91437</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>111359; 154120</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>49919</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>73136</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>123054</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39208; 62635</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62125; 85325</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>107738; 141156</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>56845</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>80859</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>137703</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>42554; 76566</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48918; 106094</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>100009; 170704</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15352</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22894</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>38246</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10733; 21753</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17389; 28843</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30870; 46818</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>44954</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>65323</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>110277</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>35526; 56324</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>55537; 76121</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>97253; 127271</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>112230</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>159693</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>271923</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>93134; 135111</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>84343; 215813</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>167930; 324311</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>150206</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>228297</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>378502</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>64608; 211362</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>206492; 247776</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>236089; 457438</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>500330</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>734497</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1234827</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>392365; 556975</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>590412; 802979</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1073051; 1324385</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>